--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Tnfrsf1b</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H2">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N2">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P2">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q2">
-        <v>2.037696899915223</v>
+        <v>3.104523656580889</v>
       </c>
       <c r="R2">
-        <v>18.339272099237</v>
+        <v>27.940712909228</v>
       </c>
       <c r="S2">
-        <v>0.001233515680652635</v>
+        <v>0.001496164114887192</v>
       </c>
       <c r="T2">
-        <v>0.001233515680652635</v>
+        <v>0.001496164114887192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H3">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>28.990976</v>
       </c>
       <c r="O3">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P3">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q3">
-        <v>2.238853891356445</v>
+        <v>2.027654631196445</v>
       </c>
       <c r="R3">
-        <v>20.149685022208</v>
+        <v>18.248891680768</v>
       </c>
       <c r="S3">
-        <v>0.001355285656955774</v>
+        <v>0.0009771882685287894</v>
       </c>
       <c r="T3">
-        <v>0.001355285656955774</v>
+        <v>0.0009771882685287894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H4">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N4">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P4">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q4">
-        <v>21.78612253597945</v>
+        <v>21.49722751331867</v>
       </c>
       <c r="R4">
-        <v>196.075102823815</v>
+        <v>193.475047619868</v>
       </c>
       <c r="S4">
-        <v>0.01318818503864263</v>
+        <v>0.01036016598128151</v>
       </c>
       <c r="T4">
-        <v>0.01318818503864263</v>
+        <v>0.01036016598128151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H5">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N5">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O5">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P5">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q5">
-        <v>0.3374165121216667</v>
+        <v>0.2332855268395556</v>
       </c>
       <c r="R5">
-        <v>3.036748609095</v>
+        <v>2.099569741556</v>
       </c>
       <c r="S5">
-        <v>0.000204254400460889</v>
+        <v>0.0001124273712780458</v>
       </c>
       <c r="T5">
-        <v>0.000204254400460889</v>
+        <v>0.0001124273712780458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H6">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N6">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O6">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P6">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q6">
-        <v>45.501687879218</v>
+        <v>45.05353193104401</v>
       </c>
       <c r="R6">
-        <v>409.5151909129621</v>
+        <v>405.481787379396</v>
       </c>
       <c r="S6">
-        <v>0.02754435436276735</v>
+        <v>0.02171266357763571</v>
       </c>
       <c r="T6">
-        <v>0.02754435436276735</v>
+        <v>0.02171266357763571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H7">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N7">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P7">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q7">
-        <v>22.83674268194956</v>
+        <v>12.64532306236267</v>
       </c>
       <c r="R7">
-        <v>205.530684137546</v>
+        <v>113.807907561264</v>
       </c>
       <c r="S7">
-        <v>0.01382417581063507</v>
+        <v>0.006094164735049583</v>
       </c>
       <c r="T7">
-        <v>0.01382417581063507</v>
+        <v>0.006094164735049583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H8">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N8">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P8">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q8">
-        <v>0.83802536264</v>
+        <v>1.148411568872222</v>
       </c>
       <c r="R8">
-        <v>7.54222826376</v>
+        <v>10.33570411985</v>
       </c>
       <c r="S8">
-        <v>0.0005072969515947433</v>
+        <v>0.0005534543680560134</v>
       </c>
       <c r="T8">
-        <v>0.0005072969515947434</v>
+        <v>0.0005534543680560135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H9">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>28.990976</v>
       </c>
       <c r="O9">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P9">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q9">
-        <v>0.9207533977600001</v>
+        <v>0.7500609735111112</v>
       </c>
       <c r="R9">
-        <v>8.28678057984</v>
+        <v>6.750548761600001</v>
       </c>
       <c r="S9">
-        <v>0.0005573761996685601</v>
+        <v>0.0003614771335904742</v>
       </c>
       <c r="T9">
-        <v>0.0005573761996685602</v>
+        <v>0.0003614771335904742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H10">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N10">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P10">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q10">
-        <v>8.9597835868</v>
+        <v>7.952158690316667</v>
       </c>
       <c r="R10">
-        <v>80.6380522812</v>
+        <v>71.56942821285</v>
       </c>
       <c r="S10">
-        <v>0.005423786800692353</v>
+        <v>0.003832386473564026</v>
       </c>
       <c r="T10">
-        <v>0.005423786800692353</v>
+        <v>0.003832386473564026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H11">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N11">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O11">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P11">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q11">
-        <v>0.1387662684</v>
+        <v>0.08629594343888888</v>
       </c>
       <c r="R11">
-        <v>1.2488964156</v>
+        <v>0.77666349095</v>
       </c>
       <c r="S11">
-        <v>8.400187879962606E-05</v>
+        <v>4.158863262642892E-05</v>
       </c>
       <c r="T11">
-        <v>8.400187879962607E-05</v>
+        <v>4.158863262642893E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H12">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N12">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O12">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P12">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q12">
-        <v>18.71307184464</v>
+        <v>16.66600194155</v>
       </c>
       <c r="R12">
-        <v>168.41764660176</v>
+        <v>149.99401747395</v>
       </c>
       <c r="S12">
-        <v>0.01132792004272231</v>
+        <v>0.008031851840049811</v>
       </c>
       <c r="T12">
-        <v>0.01132792004272232</v>
+        <v>0.008031851840049811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H13">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N13">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P13">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q13">
-        <v>9.39186272912</v>
+        <v>4.677701606866667</v>
       </c>
       <c r="R13">
-        <v>84.52676456208</v>
+        <v>42.0993144618</v>
       </c>
       <c r="S13">
-        <v>0.005685345032123552</v>
+        <v>0.002254326285937165</v>
       </c>
       <c r="T13">
-        <v>0.005685345032123553</v>
+        <v>0.002254326285937165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H14">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.795396333333334</v>
+        <v>14.79594033333333</v>
       </c>
       <c r="N14">
-        <v>26.386189</v>
+        <v>44.387821</v>
       </c>
       <c r="O14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771128</v>
       </c>
       <c r="P14">
-        <v>0.02150864179955676</v>
+        <v>0.03671318455771129</v>
       </c>
       <c r="Q14">
-        <v>30.14153298625434</v>
+        <v>71.9265084824509</v>
       </c>
       <c r="R14">
-        <v>271.273796876289</v>
+        <v>647.338576342058</v>
       </c>
       <c r="S14">
-        <v>0.01824611578836884</v>
+        <v>0.03466356607476808</v>
       </c>
       <c r="T14">
-        <v>0.01824611578836884</v>
+        <v>0.03466356607476809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,14 +1334,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H15">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>28.990976</v>
       </c>
       <c r="O15">
-        <v>0.02363192798336837</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="P15">
-        <v>0.02363192798336838</v>
+        <v>0.02397844788092163</v>
       </c>
       <c r="Q15">
-        <v>33.11703934993067</v>
+        <v>46.97729318991646</v>
       </c>
       <c r="R15">
-        <v>298.053354149376</v>
+        <v>422.7956387092481</v>
       </c>
       <c r="S15">
-        <v>0.02004733252361006</v>
+        <v>0.02263978247880237</v>
       </c>
       <c r="T15">
-        <v>0.02004733252361006</v>
+        <v>0.02263978247880237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H16">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.03635166666668</v>
+        <v>102.454267</v>
       </c>
       <c r="N16">
-        <v>282.109055</v>
+        <v>307.362801</v>
       </c>
       <c r="O16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="P16">
-        <v>0.2299605529395115</v>
+        <v>0.2542198960225618</v>
       </c>
       <c r="Q16">
-        <v>322.2594739620617</v>
+        <v>498.0540295797887</v>
       </c>
       <c r="R16">
-        <v>2900.335265658555</v>
+        <v>4482.486266218098</v>
       </c>
       <c r="S16">
-        <v>0.1950791181885839</v>
+        <v>0.2400273435677163</v>
       </c>
       <c r="T16">
-        <v>0.1950791181885839</v>
+        <v>0.2400273435677163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H17">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.456405</v>
+        <v>1.111822333333333</v>
       </c>
       <c r="N17">
-        <v>4.369215000000001</v>
+        <v>3.335467</v>
       </c>
       <c r="O17">
-        <v>0.003561555644896289</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="P17">
-        <v>0.00356155564489629</v>
+        <v>0.002758766093905704</v>
       </c>
       <c r="Q17">
-        <v>4.991051873635</v>
+        <v>5.404827046329555</v>
       </c>
       <c r="R17">
-        <v>44.91946686271501</v>
+        <v>48.643443416966</v>
       </c>
       <c r="S17">
-        <v>0.003021323116963876</v>
+        <v>0.002604750090001229</v>
       </c>
       <c r="T17">
-        <v>0.003021323116963876</v>
+        <v>0.002604750090001229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H18">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>196.400838</v>
+        <v>214.721949</v>
       </c>
       <c r="N18">
-        <v>589.2025140000001</v>
+        <v>644.165847</v>
       </c>
       <c r="O18">
-        <v>0.4802870858320739</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="P18">
-        <v>0.480287085832074</v>
+        <v>0.5327898304961942</v>
       </c>
       <c r="Q18">
-        <v>673.059190598346</v>
+        <v>1043.813352729134</v>
       </c>
       <c r="R18">
-        <v>6057.532715385115</v>
+        <v>9394.320174562206</v>
       </c>
       <c r="S18">
-        <v>0.4074350143266998</v>
+        <v>0.5030453150785087</v>
       </c>
       <c r="T18">
-        <v>0.4074350143266999</v>
+        <v>0.5030453150785087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H19">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>98.57118733333334</v>
+        <v>60.266716</v>
       </c>
       <c r="N19">
-        <v>295.713562</v>
+        <v>180.800148</v>
       </c>
       <c r="O19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="P19">
-        <v>0.2410502358005932</v>
+        <v>0.1495398749487053</v>
       </c>
       <c r="Q19">
-        <v>337.8002061421514</v>
+        <v>292.9705285319227</v>
       </c>
       <c r="R19">
-        <v>3040.201855279362</v>
+        <v>2636.734756787304</v>
       </c>
       <c r="S19">
-        <v>0.2044866688570671</v>
+        <v>0.1411913839277185</v>
       </c>
       <c r="T19">
-        <v>0.2044866688570671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.795396333333334</v>
-      </c>
-      <c r="N20">
-        <v>26.386189</v>
-      </c>
-      <c r="O20">
-        <v>0.02150864179955676</v>
-      </c>
-      <c r="P20">
-        <v>0.02150864179955676</v>
-      </c>
-      <c r="Q20">
-        <v>2.513782908042223</v>
-      </c>
-      <c r="R20">
-        <v>22.62404617238</v>
-      </c>
-      <c r="S20">
-        <v>0.001521713378940543</v>
-      </c>
-      <c r="T20">
-        <v>0.001521713378940543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>9.663658666666668</v>
-      </c>
-      <c r="N21">
-        <v>28.990976</v>
-      </c>
-      <c r="O21">
-        <v>0.02363192798336837</v>
-      </c>
-      <c r="P21">
-        <v>0.02363192798336838</v>
-      </c>
-      <c r="Q21">
-        <v>2.761938071324445</v>
-      </c>
-      <c r="R21">
-        <v>24.85744264192001</v>
-      </c>
-      <c r="S21">
-        <v>0.00167193360313398</v>
-      </c>
-      <c r="T21">
-        <v>0.00167193360313398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>94.03635166666668</v>
-      </c>
-      <c r="N22">
-        <v>282.109055</v>
-      </c>
-      <c r="O22">
-        <v>0.2299605529395115</v>
-      </c>
-      <c r="P22">
-        <v>0.2299605529395115</v>
-      </c>
-      <c r="Q22">
-        <v>26.87621621534445</v>
-      </c>
-      <c r="R22">
-        <v>241.8859459381</v>
-      </c>
-      <c r="S22">
-        <v>0.01626946291159263</v>
-      </c>
-      <c r="T22">
-        <v>0.01626946291159263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.456405</v>
-      </c>
-      <c r="N23">
-        <v>4.369215000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.003561555644896289</v>
-      </c>
-      <c r="P23">
-        <v>0.00356155564489629</v>
-      </c>
-      <c r="Q23">
-        <v>0.4162502583666668</v>
-      </c>
-      <c r="R23">
-        <v>3.746252325300001</v>
-      </c>
-      <c r="S23">
-        <v>0.0002519762486718982</v>
-      </c>
-      <c r="T23">
-        <v>0.0002519762486718982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>196.400838</v>
-      </c>
-      <c r="N24">
-        <v>589.2025140000001</v>
-      </c>
-      <c r="O24">
-        <v>0.4802870858320739</v>
-      </c>
-      <c r="P24">
-        <v>0.480287085832074</v>
-      </c>
-      <c r="Q24">
-        <v>56.13266883932001</v>
-      </c>
-      <c r="R24">
-        <v>505.1940195538801</v>
-      </c>
-      <c r="S24">
-        <v>0.03397979709988444</v>
-      </c>
-      <c r="T24">
-        <v>0.03397979709988444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>98.57118733333334</v>
-      </c>
-      <c r="N25">
-        <v>295.713562</v>
-      </c>
-      <c r="O25">
-        <v>0.2410502358005932</v>
-      </c>
-      <c r="P25">
-        <v>0.2410502358005932</v>
-      </c>
-      <c r="Q25">
-        <v>28.17230248111556</v>
-      </c>
-      <c r="R25">
-        <v>253.55072233004</v>
-      </c>
-      <c r="S25">
-        <v>0.01705404610076748</v>
-      </c>
-      <c r="T25">
-        <v>0.01705404610076748</v>
+        <v>0.1411913839277185</v>
       </c>
     </row>
   </sheetData>
